--- a/test_cases.xlsx
+++ b/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zee/development/CS151_labs/PA1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csking2\PycharmProjects\cs151-pa1-csking2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D0D32F8-6D7A-7B45-9670-B8699C8948C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89D49D58-3A10-4E84-A231-9BF47DBC2B43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67920" windowHeight="28300" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14355" windowHeight="15585" xr2:uid="{078FF010-DC04-EB46-847F-52BBCCEEE85C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -34,9 +34,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="39">
   <si>
     <t>You need to create your own tests</t>
+  </si>
+  <si>
+    <t>First Input</t>
+  </si>
+  <si>
+    <t>Second Input</t>
+  </si>
+  <si>
+    <t>First Output</t>
+  </si>
+  <si>
+    <t>Football</t>
+  </si>
+  <si>
+    <t>Third Input</t>
+  </si>
+  <si>
+    <t>kicker</t>
+  </si>
+  <si>
+    <t>punter</t>
+  </si>
+  <si>
+    <t>Second output</t>
+  </si>
+  <si>
+    <t>Forth Input</t>
+  </si>
+  <si>
+    <t>quarterback</t>
+  </si>
+  <si>
+    <t>runningback</t>
+  </si>
+  <si>
+    <t>widereceiver</t>
+  </si>
+  <si>
+    <t>linebacker</t>
+  </si>
+  <si>
+    <t>cornerback</t>
+  </si>
+  <si>
+    <t>lineman</t>
+  </si>
+  <si>
+    <t>Basketball</t>
+  </si>
+  <si>
+    <t>Center</t>
+  </si>
+  <si>
+    <t>pointguard</t>
+  </si>
+  <si>
+    <t>smallforward</t>
+  </si>
+  <si>
+    <t>powerforward</t>
+  </si>
+  <si>
+    <t>shootingguard</t>
+  </si>
+  <si>
+    <t>cody</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cody </t>
+  </si>
+  <si>
+    <t>cody is on special teams</t>
+  </si>
+  <si>
+    <t>cody is on offense</t>
+  </si>
+  <si>
+    <t>cody is a center</t>
+  </si>
+  <si>
+    <t>cody is on defense</t>
+  </si>
+  <si>
+    <t>cody is a kicker</t>
+  </si>
+  <si>
+    <t>cody is a punter</t>
+  </si>
+  <si>
+    <t>cody is a quarterback</t>
+  </si>
+  <si>
+    <t>cody is a runningback</t>
+  </si>
+  <si>
+    <t>cody is a widereceiver</t>
+  </si>
+  <si>
+    <t>cody is a linebacker</t>
+  </si>
+  <si>
+    <t>cody is a cornerback</t>
+  </si>
+  <si>
+    <t>cody is a lineman</t>
+  </si>
+  <si>
+    <t>cody is on Team USA</t>
+  </si>
+  <si>
+    <t>cody is on China</t>
+  </si>
+  <si>
+    <t>cody is on Russia</t>
   </si>
 </sst>
 </file>
@@ -60,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -68,15 +182,144 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -95,9 +338,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -135,7 +378,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -241,7 +484,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -383,7 +626,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,15 +634,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EF6E1F2-B43E-D343-BB9B-DE90F40B65C5}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="3" max="3" width="12.75" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="20.625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -407,6 +657,435 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="7"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>3.6</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>2</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>3</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="5"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="5"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="5"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="7"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="5"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>2</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>3</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="7"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6">
+        <v>2</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6">
+        <v>3</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="7"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9">
+        <v>3</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
